--- a/Master_Board/V1/BOM/Master_Bom_All.xlsx
+++ b/Master_Board/V1/BOM/Master_Bom_All.xlsx
@@ -917,7 +917,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_)\ _$_ ;_ * \(#,##0.00\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0_)\ _$_ ;_ * \(#,##0\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_)\ _$_ ;_ * \(#,##0\)\ _$_ ;_ * &quot;-&quot;??_)\ _$_ ;_ @_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -976,7 +976,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -988,7 +988,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1272,11 +1272,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1988,7 +1989,7 @@
         <v>649002227222</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2278,7 +2279,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2452,7 +2453,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -3237,5 +3238,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>